--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2583"/>
+  <dimension ref="A1:E2627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32699,6 +32699,754 @@
         <v>0.64</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" s="4" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B2584" t="n">
+        <v>11984.01</v>
+      </c>
+      <c r="C2584" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="D2584" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="4" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B2585" t="n">
+        <v>12048.46</v>
+      </c>
+      <c r="C2585" t="n">
+        <v>54.24</v>
+      </c>
+      <c r="D2585" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="4" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B2586" t="n">
+        <v>11887</v>
+      </c>
+      <c r="C2586" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="D2586" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="4" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B2587" t="n">
+        <v>12078.89</v>
+      </c>
+      <c r="C2587" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="D2587" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2587" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="4" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B2588" t="n">
+        <v>12143.63</v>
+      </c>
+      <c r="C2588" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D2588" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2588" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="4" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B2589" t="n">
+        <v>12102.56</v>
+      </c>
+      <c r="C2589" t="n">
+        <v>54.53</v>
+      </c>
+      <c r="D2589" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2589" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="4" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B2590" t="n">
+        <v>12156.6</v>
+      </c>
+      <c r="C2590" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2590" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="4" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B2591" t="n">
+        <v>12094.06</v>
+      </c>
+      <c r="C2591" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="D2591" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="4" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>12030.72</v>
+      </c>
+      <c r="C2592" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="D2592" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="4" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>11925.15</v>
+      </c>
+      <c r="C2593" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D2593" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="4" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>12002.77</v>
+      </c>
+      <c r="C2594" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="D2594" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="4" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>12065.35</v>
+      </c>
+      <c r="C2595" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="D2595" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="4" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>12002.22</v>
+      </c>
+      <c r="C2596" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="D2596" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="4" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>12006.65</v>
+      </c>
+      <c r="C2597" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="D2597" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="4" t="n">
+        <v>44372</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>12071.36</v>
+      </c>
+      <c r="C2598" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="D2598" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="4" t="n">
+        <v>44375</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>12115.44</v>
+      </c>
+      <c r="C2599" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="D2599" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="4" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>12098.6</v>
+      </c>
+      <c r="C2600" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="D2600" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="4" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>12125.09</v>
+      </c>
+      <c r="C2601" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="D2601" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="4" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>12205.61</v>
+      </c>
+      <c r="C2602" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="D2602" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="4" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>12336.02</v>
+      </c>
+      <c r="C2603" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="D2603" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="4" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>12433.25</v>
+      </c>
+      <c r="C2604" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="D2604" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="4" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>12350.92</v>
+      </c>
+      <c r="C2605" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D2605" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="4" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>12427.62</v>
+      </c>
+      <c r="C2606" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="D2606" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="4" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>12423.49</v>
+      </c>
+      <c r="C2607" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="D2607" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="4" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>12490.95</v>
+      </c>
+      <c r="C2608" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="D2608" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="4" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>12566.25</v>
+      </c>
+      <c r="C2609" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="D2609" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="4" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>12695.63</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D2610" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2610" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="4" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>12752.13</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>42.05</v>
+      </c>
+      <c r="D2611" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E2611" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="4" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>12874.88</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="D2612" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2612" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="4" t="n">
+        <v>44393</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>13016.79</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="D2613" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2613" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="4" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>13025.35</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="D2614" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2614" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="4" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>12842.34</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>42.47</v>
+      </c>
+      <c r="D2615" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2615" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="4" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>13032.42</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="D2616" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2616" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="4" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>12974.11</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D2617" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2617" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="4" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>13008.77</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="D2618" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2618" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="4" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>13006.53</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="D2619" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2619" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="4" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>12944.07</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D2620" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="4" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>13062.42</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="D2621" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2621" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="4" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>13120.45</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="D2622" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2622" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="4" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>13239.32</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="D2623" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="4" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>13207.34</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="D2624" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" s="4" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>13073.98</v>
+      </c>
+      <c r="C2625" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="D2625" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="4" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>13000.88</v>
+      </c>
+      <c r="C2626" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="D2626" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="4" t="n">
+        <v>44414</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>13009</v>
+      </c>
+      <c r="C2627" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="D2627" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2627"/>
+  <dimension ref="A1:E2670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33447,6 +33447,737 @@
         <v>0.71</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" s="4" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>12892.12</v>
+      </c>
+      <c r="C2628" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="D2628" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="4" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>12595.52</v>
+      </c>
+      <c r="C2629" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D2629" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2629" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="4" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>12508.81</v>
+      </c>
+      <c r="C2630" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D2630" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2630" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="4" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>12774.73</v>
+      </c>
+      <c r="C2631" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D2631" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2631" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="4" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>12724.92</v>
+      </c>
+      <c r="C2632" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="D2632" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2632" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="4" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>12625.2</v>
+      </c>
+      <c r="C2633" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D2633" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2633" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="4" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>12594.17</v>
+      </c>
+      <c r="C2634" t="n">
+        <v>31.56</v>
+      </c>
+      <c r="D2634" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2634" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="4" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>12565.78</v>
+      </c>
+      <c r="C2635" t="n">
+        <v>31.48</v>
+      </c>
+      <c r="D2635" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2635" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="4" t="n">
+        <v>44428</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>12295.52</v>
+      </c>
+      <c r="C2636" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D2636" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2636" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="4" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>12070.18</v>
+      </c>
+      <c r="C2637" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="D2637" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E2637" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="4" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>12311.23</v>
+      </c>
+      <c r="C2638" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D2638" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2638" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="4" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>12408.22</v>
+      </c>
+      <c r="C2639" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="D2639" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2639" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="4" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>12443.54</v>
+      </c>
+      <c r="C2640" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D2640" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="4" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>12540.98</v>
+      </c>
+      <c r="C2641" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D2641" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="4" t="n">
+        <v>44438</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>12732.92</v>
+      </c>
+      <c r="C2642" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="D2642" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="4" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>12820.56</v>
+      </c>
+      <c r="C2643" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="D2643" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="4" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>12864.65</v>
+      </c>
+      <c r="C2644" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D2644" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="4" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>12997.73</v>
+      </c>
+      <c r="C2645" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="D2645" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="4" t="n">
+        <v>44442</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>13050.71</v>
+      </c>
+      <c r="C2646" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="D2646" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="4" t="n">
+        <v>44445</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>13193.34</v>
+      </c>
+      <c r="C2647" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D2647" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="4" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>13181.17</v>
+      </c>
+      <c r="C2648" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="D2648" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="4" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>13267.49</v>
+      </c>
+      <c r="C2649" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D2649" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" s="4" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B2650" t="n">
+        <v>13353.03</v>
+      </c>
+      <c r="C2650" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D2650" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" s="4" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B2651" t="n">
+        <v>13426.94</v>
+      </c>
+      <c r="C2651" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D2651" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" s="4" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2652" t="n">
+        <v>13465.96</v>
+      </c>
+      <c r="C2652" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="D2652" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" s="4" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B2653" t="n">
+        <v>13553.18</v>
+      </c>
+      <c r="C2653" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="D2653" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" s="4" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B2654" t="n">
+        <v>13582.65</v>
+      </c>
+      <c r="C2654" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="D2654" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" s="4" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B2655" t="n">
+        <v>13485.95</v>
+      </c>
+      <c r="C2655" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="D2655" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" s="4" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B2656" t="n">
+        <v>13255.13</v>
+      </c>
+      <c r="C2656" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="D2656" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2656" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="4" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B2657" t="n">
+        <v>13238.67</v>
+      </c>
+      <c r="C2657" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D2657" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2657" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="4" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B2658" t="n">
+        <v>13430.47</v>
+      </c>
+      <c r="C2658" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="D2658" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2658" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="4" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B2659" t="n">
+        <v>13538.11</v>
+      </c>
+      <c r="C2659" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="D2659" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2659" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="4" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B2660" t="n">
+        <v>13554.29</v>
+      </c>
+      <c r="C2660" t="n">
+        <v>33.88</v>
+      </c>
+      <c r="D2660" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2660" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="4" t="n">
+        <v>44466</v>
+      </c>
+      <c r="B2661" t="n">
+        <v>13537.87</v>
+      </c>
+      <c r="C2661" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="D2661" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2661" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="4" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B2662" t="n">
+        <v>13465.26</v>
+      </c>
+      <c r="C2662" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="D2662" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2662" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="4" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B2663" t="n">
+        <v>13519.97</v>
+      </c>
+      <c r="C2663" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="D2663" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2663" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B2664" t="n">
+        <v>13621.12</v>
+      </c>
+      <c r="C2664" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="D2664" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2664" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" s="4" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B2665" t="n">
+        <v>13639.21</v>
+      </c>
+      <c r="C2665" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="D2665" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2665" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="4" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B2666" t="n">
+        <v>13854.41</v>
+      </c>
+      <c r="C2666" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D2666" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2666" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="4" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B2667" t="n">
+        <v>13915.37</v>
+      </c>
+      <c r="C2667" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="D2667" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2667" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="4" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B2668" t="n">
+        <v>13800.32</v>
+      </c>
+      <c r="C2668" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="D2668" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2668" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="4" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B2669" t="n">
+        <v>13968.86</v>
+      </c>
+      <c r="C2669" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="D2669" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2669" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="4" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B2670" t="n">
+        <v>14141.09</v>
+      </c>
+      <c r="C2670" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="D2670" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2670"/>
+  <dimension ref="A1:E2684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34178,6 +34178,244 @@
         <v>0.76</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" s="4" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B2671" t="n">
+        <v>14304.64</v>
+      </c>
+      <c r="C2671" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="D2671" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="4" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B2672" t="n">
+        <v>14419.33</v>
+      </c>
+      <c r="C2672" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="D2672" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="4" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B2673" t="n">
+        <v>14417.22</v>
+      </c>
+      <c r="C2673" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="D2673" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="4" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B2674" t="n">
+        <v>14504.06</v>
+      </c>
+      <c r="C2674" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D2674" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="4" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B2675" t="n">
+        <v>14606.2</v>
+      </c>
+      <c r="C2675" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="D2675" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="4" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B2676" t="n">
+        <v>14360</v>
+      </c>
+      <c r="C2676" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D2676" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="4" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B2677" t="n">
+        <v>14011.52</v>
+      </c>
+      <c r="C2677" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D2677" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="4" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B2678" t="n">
+        <v>13899.11</v>
+      </c>
+      <c r="C2678" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="D2678" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="4" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B2679" t="n">
+        <v>13725.48</v>
+      </c>
+      <c r="C2679" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="D2679" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2679" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="4" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B2680" t="n">
+        <v>13403.65</v>
+      </c>
+      <c r="C2680" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="D2680" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2680" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="4" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B2681" t="n">
+        <v>13751.22</v>
+      </c>
+      <c r="C2681" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="D2681" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2681" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="4" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B2682" t="n">
+        <v>13788.4</v>
+      </c>
+      <c r="C2682" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="D2682" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2682" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="4" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B2683" t="n">
+        <v>13534.99</v>
+      </c>
+      <c r="C2683" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="D2683" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2683" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="4" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B2684" t="n">
+        <v>13474.06</v>
+      </c>
+      <c r="C2684" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="D2684" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2684" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2684"/>
+  <dimension ref="A1:E2688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34416,6 +34416,74 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="2685">
+      <c r="A2685" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B2685" t="n">
+        <v>13590.52</v>
+      </c>
+      <c r="C2685" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="D2685" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2685" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="4" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B2686" t="n">
+        <v>13729.53</v>
+      </c>
+      <c r="C2686" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D2686" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2686" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="4" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B2687" t="n">
+        <v>13639.54</v>
+      </c>
+      <c r="C2687" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D2687" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2687" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="4" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B2688" t="n">
+        <v>13816.34</v>
+      </c>
+      <c r="C2688" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="D2688" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2688" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2688"/>
+  <dimension ref="A1:E2703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34484,6 +34484,261 @@
         <v>0.83</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" s="4" t="n">
+        <v>44508</v>
+      </c>
+      <c r="B2689" t="n">
+        <v>13964.99</v>
+      </c>
+      <c r="C2689" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="D2689" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2689" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="4" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B2690" t="n">
+        <v>14033.61</v>
+      </c>
+      <c r="C2690" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D2690" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2690" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="4" t="n">
+        <v>44510</v>
+      </c>
+      <c r="B2691" t="n">
+        <v>14021.36</v>
+      </c>
+      <c r="C2691" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D2691" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2691" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="4" t="n">
+        <v>44511</v>
+      </c>
+      <c r="B2692" t="n">
+        <v>13950.21</v>
+      </c>
+      <c r="C2692" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="D2692" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="4" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B2693" t="n">
+        <v>13990.53</v>
+      </c>
+      <c r="C2693" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="D2693" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="4" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B2694" t="n">
+        <v>13954.99</v>
+      </c>
+      <c r="C2694" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D2694" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="4" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B2695" t="n">
+        <v>14025.18</v>
+      </c>
+      <c r="C2695" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="D2695" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="4" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B2696" t="n">
+        <v>14044.56</v>
+      </c>
+      <c r="C2696" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="D2696" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="4" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B2697" t="n">
+        <v>13816.14</v>
+      </c>
+      <c r="C2697" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="D2697" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="4" t="n">
+        <v>44522</v>
+      </c>
+      <c r="B2698" t="n">
+        <v>13437.9</v>
+      </c>
+      <c r="C2698" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D2698" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2698" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="4" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B2699" t="n">
+        <v>13695.34</v>
+      </c>
+      <c r="C2699" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="D2699" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="4" t="n">
+        <v>44524</v>
+      </c>
+      <c r="B2700" t="n">
+        <v>13782.36</v>
+      </c>
+      <c r="C2700" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D2700" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2700" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="4" t="n">
+        <v>44525</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>13888.14</v>
+      </c>
+      <c r="C2701" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D2701" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2701" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="4" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>13486.7</v>
+      </c>
+      <c r="C2702" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="D2702" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2702" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="4" t="n">
+        <v>44529</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>13134.98</v>
+      </c>
+      <c r="C2703" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="D2703" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2703" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2703"/>
+  <dimension ref="A1:E2707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34739,6 +34739,74 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" s="4" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>13349.37</v>
+      </c>
+      <c r="C2704" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="D2704" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2704" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>13365.12</v>
+      </c>
+      <c r="C2705" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D2705" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="4" t="n">
+        <v>44532</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>13446.5</v>
+      </c>
+      <c r="C2706" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D2706" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2706" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="4" t="n">
+        <v>44533</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>13557.33</v>
+      </c>
+      <c r="C2707" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D2707" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2707" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2707"/>
+  <dimension ref="A1:E2712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34807,6 +34807,91 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" s="4" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>13409.97</v>
+      </c>
+      <c r="C2708" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="D2708" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2708" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="4" t="n">
+        <v>44537</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>13556.72</v>
+      </c>
+      <c r="C2709" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D2709" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2709" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>13804.33</v>
+      </c>
+      <c r="C2710" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="D2710" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2710" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="4" t="n">
+        <v>44539</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>13975.93</v>
+      </c>
+      <c r="C2711" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="D2711" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2711" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="4" t="n">
+        <v>44540</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>14088.49</v>
+      </c>
+      <c r="C2712" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="D2712" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2712" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2712"/>
+  <dimension ref="A1:E2727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34892,6 +34892,261 @@
         <v>0.8100000000000001</v>
       </c>
     </row>
+    <row r="2713">
+      <c r="A2713" s="4" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>14072.53</v>
+      </c>
+      <c r="C2713" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D2713" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2713" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="4" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>14103.71</v>
+      </c>
+      <c r="C2714" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="D2714" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2714" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>14048.45</v>
+      </c>
+      <c r="C2715" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="D2715" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2715" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" s="4" t="n">
+        <v>44546</v>
+      </c>
+      <c r="B2716" t="n">
+        <v>13931.33</v>
+      </c>
+      <c r="C2716" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="D2716" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2716" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" s="4" t="n">
+        <v>44547</v>
+      </c>
+      <c r="B2717" t="n">
+        <v>13585.57</v>
+      </c>
+      <c r="C2717" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="D2717" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2717" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" s="4" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B2718" t="n">
+        <v>13037.33</v>
+      </c>
+      <c r="C2718" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="D2718" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E2718" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B2719" t="n">
+        <v>13200.47</v>
+      </c>
+      <c r="C2719" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="D2719" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2719" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" s="4" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B2720" t="n">
+        <v>13484.57</v>
+      </c>
+      <c r="C2720" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="D2720" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2720" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" s="4" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B2721" t="n">
+        <v>13656.55</v>
+      </c>
+      <c r="C2721" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D2721" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2721" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" s="4" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B2722" t="n">
+        <v>13585.83</v>
+      </c>
+      <c r="C2722" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="D2722" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2722" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" s="4" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B2723" t="n">
+        <v>13613.6</v>
+      </c>
+      <c r="C2723" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="D2723" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2723" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" s="4" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B2724" t="n">
+        <v>13824.76</v>
+      </c>
+      <c r="C2724" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="D2724" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2724" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B2725" t="n">
+        <v>13905.79</v>
+      </c>
+      <c r="C2725" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="D2725" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2725" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" s="4" t="n">
+        <v>44560</v>
+      </c>
+      <c r="B2726" t="n">
+        <v>13939.31</v>
+      </c>
+      <c r="C2726" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="D2726" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2726" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" s="4" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B2727" t="n">
+        <v>14136.29</v>
+      </c>
+      <c r="C2727" t="n">
+        <v>32.11</v>
+      </c>
+      <c r="D2727" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2727" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2727"/>
+  <dimension ref="A1:E2742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35147,6 +35147,261 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="2728">
+      <c r="A2728" s="4" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B2728" t="n">
+        <v>14298.39</v>
+      </c>
+      <c r="C2728" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="D2728" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2728" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B2729" t="n">
+        <v>14344.16</v>
+      </c>
+      <c r="C2729" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="D2729" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E2729" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" s="4" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B2730" t="n">
+        <v>14308.42</v>
+      </c>
+      <c r="C2730" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D2730" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2730" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" s="4" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B2731" t="n">
+        <v>14338.72</v>
+      </c>
+      <c r="C2731" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="D2731" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E2731" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" s="4" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B2732" t="n">
+        <v>14392.3</v>
+      </c>
+      <c r="C2732" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D2732" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E2732" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" s="4" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B2733" t="n">
+        <v>14576.69</v>
+      </c>
+      <c r="C2733" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D2733" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2733" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" s="4" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B2734" t="n">
+        <v>14584.91</v>
+      </c>
+      <c r="C2734" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="D2734" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2734" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B2735" t="n">
+        <v>14713.14</v>
+      </c>
+      <c r="C2735" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D2735" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E2735" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" s="4" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B2736" t="n">
+        <v>14803.39</v>
+      </c>
+      <c r="C2736" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="D2736" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E2736" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" s="4" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B2737" t="n">
+        <v>14914.03</v>
+      </c>
+      <c r="C2737" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="D2737" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E2737" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" s="4" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B2738" t="n">
+        <v>15003.27</v>
+      </c>
+      <c r="C2738" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="D2738" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2738" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" s="4" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B2739" t="n">
+        <v>14635.97</v>
+      </c>
+      <c r="C2739" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D2739" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2739" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B2740" t="n">
+        <v>14637.83</v>
+      </c>
+      <c r="C2740" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="D2740" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2740" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" s="4" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B2741" t="n">
+        <v>14631.2</v>
+      </c>
+      <c r="C2741" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="D2741" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2741" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" s="4" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B2742" t="n">
+        <v>14297.23</v>
+      </c>
+      <c r="C2742" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="D2742" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2742" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2742"/>
+  <dimension ref="A1:E2761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35402,6 +35402,329 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="2743">
+      <c r="A2743" s="4" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B2743" t="n">
+        <v>13623.79</v>
+      </c>
+      <c r="C2743" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="D2743" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2743" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" s="4" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B2744" t="n">
+        <v>13746.8</v>
+      </c>
+      <c r="C2744" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="D2744" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2744" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" s="4" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B2745" t="n">
+        <v>13646.22</v>
+      </c>
+      <c r="C2745" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D2745" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2745" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" s="4" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B2746" t="n">
+        <v>13775.39</v>
+      </c>
+      <c r="C2746" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D2746" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2746" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" s="4" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>13931.51</v>
+      </c>
+      <c r="C2747" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="D2747" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E2747" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="4" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>14010.27</v>
+      </c>
+      <c r="C2748" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="D2748" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2748" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B2749" t="n">
+        <v>14211.66</v>
+      </c>
+      <c r="C2749" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="D2749" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2749" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B2750" t="n">
+        <v>14166.08</v>
+      </c>
+      <c r="C2750" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="D2750" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2750" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" s="4" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B2751" t="n">
+        <v>14038.4</v>
+      </c>
+      <c r="C2751" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D2751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2751" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="4" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B2752" t="n">
+        <v>13851.64</v>
+      </c>
+      <c r="C2752" t="n">
+        <v>30.68</v>
+      </c>
+      <c r="D2752" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2752" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="4" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B2753" t="n">
+        <v>13612.93</v>
+      </c>
+      <c r="C2753" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="D2753" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2753" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>13668.96</v>
+      </c>
+      <c r="C2754" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="D2754" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2754" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="4" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>13733.96</v>
+      </c>
+      <c r="C2755" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D2755" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2755" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="4" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>13409.61</v>
+      </c>
+      <c r="C2756" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D2756" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2756" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="4" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B2757" t="n">
+        <v>12814.57</v>
+      </c>
+      <c r="C2757" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="D2757" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E2757" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="4" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B2758" t="n">
+        <v>13136.04</v>
+      </c>
+      <c r="C2758" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="D2758" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2758" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B2759" t="n">
+        <v>13233.22</v>
+      </c>
+      <c r="C2759" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="D2759" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2759" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="4" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B2760" t="n">
+        <v>13102.26</v>
+      </c>
+      <c r="C2760" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="D2760" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2760" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="4" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B2761" t="n">
+        <v>12963.33</v>
+      </c>
+      <c r="C2761" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D2761" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2761" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2761"/>
+  <dimension ref="A1:E2779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35725,6 +35725,312 @@
         <v>0.91</v>
       </c>
     </row>
+    <row r="2762">
+      <c r="A2762" s="4" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B2762" t="n">
+        <v>12610.38</v>
+      </c>
+      <c r="C2762" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="D2762" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2762" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" s="4" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B2763" t="n">
+        <v>12351.69</v>
+      </c>
+      <c r="C2763" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="D2763" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E2763" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" s="4" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B2764" t="n">
+        <v>12497.2</v>
+      </c>
+      <c r="C2764" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="D2764" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E2764" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" s="4" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B2765" t="n">
+        <v>11716.47</v>
+      </c>
+      <c r="C2765" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="D2765" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E2765" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" s="4" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B2766" t="n">
+        <v>12283.59</v>
+      </c>
+      <c r="C2766" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="D2766" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E2766" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" s="4" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B2767" t="n">
+        <v>12356.36</v>
+      </c>
+      <c r="C2767" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="D2767" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E2767" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" s="4" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B2768" t="n">
+        <v>12417.92</v>
+      </c>
+      <c r="C2768" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="D2768" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E2768" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" s="4" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B2769" t="n">
+        <v>12461.65</v>
+      </c>
+      <c r="C2769" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="D2769" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E2769" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" s="4" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B2770" t="n">
+        <v>12240.03</v>
+      </c>
+      <c r="C2770" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="D2770" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E2770" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" s="4" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B2771" t="n">
+        <v>11989.83</v>
+      </c>
+      <c r="C2771" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="D2771" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E2771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" s="4" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B2772" t="n">
+        <v>12171.37</v>
+      </c>
+      <c r="C2772" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="D2772" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E2772" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" s="4" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B2773" t="n">
+        <v>12461.16</v>
+      </c>
+      <c r="C2773" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="D2773" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E2773" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="4" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B2774" t="n">
+        <v>12637.24</v>
+      </c>
+      <c r="C2774" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D2774" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2774" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="4" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B2775" t="n">
+        <v>12752.58</v>
+      </c>
+      <c r="C2775" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D2775" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2775" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="4" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B2776" t="n">
+        <v>12780.15</v>
+      </c>
+      <c r="C2776" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="D2776" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E2776" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="4" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B2777" t="n">
+        <v>12599.67</v>
+      </c>
+      <c r="C2777" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D2777" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2777" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="4" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B2778" t="n">
+        <v>12747.29</v>
+      </c>
+      <c r="C2778" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="D2778" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2778" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="4" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B2779" t="n">
+        <v>12904.05</v>
+      </c>
+      <c r="C2779" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="D2779" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2779" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2779"/>
+  <dimension ref="A1:E2811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36031,6 +36031,550 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="2780">
+      <c r="A2780" s="4" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B2780" t="n">
+        <v>12934.21</v>
+      </c>
+      <c r="C2780" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D2780" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2780" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="4" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B2781" t="n">
+        <v>12970.79</v>
+      </c>
+      <c r="C2781" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="D2781" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2781" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="4" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B2782" t="n">
+        <v>12944.15</v>
+      </c>
+      <c r="C2782" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="D2782" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2782" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="4" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B2783" t="n">
+        <v>13004.25</v>
+      </c>
+      <c r="C2783" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D2783" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2783" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="4" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B2784" t="n">
+        <v>12939.98</v>
+      </c>
+      <c r="C2784" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D2784" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2784" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="4" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B2785" t="n">
+        <v>12846</v>
+      </c>
+      <c r="C2785" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="D2785" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2785" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="4" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B2786" t="n">
+        <v>12890.17</v>
+      </c>
+      <c r="C2786" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="D2786" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2786" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="4" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B2787" t="n">
+        <v>13015.47</v>
+      </c>
+      <c r="C2787" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="D2787" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2787" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="4" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B2788" t="n">
+        <v>13105.79</v>
+      </c>
+      <c r="C2788" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="D2788" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2788" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="4" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B2789" t="n">
+        <v>13325.6</v>
+      </c>
+      <c r="C2789" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="D2789" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2789" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="4" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B2790" t="n">
+        <v>13541.98</v>
+      </c>
+      <c r="C2790" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="D2790" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2790" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="4" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B2791" t="n">
+        <v>13657.25</v>
+      </c>
+      <c r="C2791" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D2791" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2791" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="4" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B2792" t="n">
+        <v>13673.57</v>
+      </c>
+      <c r="C2792" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="D2792" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2792" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="4" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B2793" t="n">
+        <v>13631.41</v>
+      </c>
+      <c r="C2793" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D2793" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2793" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="4" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B2794" t="n">
+        <v>13685.07</v>
+      </c>
+      <c r="C2794" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D2794" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2794" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="4" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B2795" t="n">
+        <v>13676.97</v>
+      </c>
+      <c r="C2795" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="D2795" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2795" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="4" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B2796" t="n">
+        <v>13460.2</v>
+      </c>
+      <c r="C2796" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="D2796" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2796" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="4" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B2797" t="n">
+        <v>13485.92</v>
+      </c>
+      <c r="C2797" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="D2797" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2797" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="4" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B2798" t="n">
+        <v>13317.26</v>
+      </c>
+      <c r="C2798" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="D2798" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2798" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="4" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B2799" t="n">
+        <v>13100.69</v>
+      </c>
+      <c r="C2799" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D2799" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2799" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="4" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B2800" t="n">
+        <v>13077.69</v>
+      </c>
+      <c r="C2800" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="D2800" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2800" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="4" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B2801" t="n">
+        <v>13280.21</v>
+      </c>
+      <c r="C2801" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="D2801" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="4" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B2802" t="n">
+        <v>13237.71</v>
+      </c>
+      <c r="C2802" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="D2802" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="4" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B2803" t="n">
+        <v>12917.81</v>
+      </c>
+      <c r="C2803" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D2803" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="4" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B2804" t="n">
+        <v>13068.38</v>
+      </c>
+      <c r="C2804" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="D2804" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="4" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B2805" t="n">
+        <v>12989.03</v>
+      </c>
+      <c r="C2805" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="D2805" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="4" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B2806" t="n">
+        <v>13036.32</v>
+      </c>
+      <c r="C2806" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2806" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="4" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B2807" t="n">
+        <v>12885.61</v>
+      </c>
+      <c r="C2807" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2807" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="4" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B2808" t="n">
+        <v>12713.15</v>
+      </c>
+      <c r="C2808" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2808" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="4" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B2809" t="n">
+        <v>12413.91</v>
+      </c>
+      <c r="C2809" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D2809" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E2809" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="4" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B2810" t="n">
+        <v>12320.48</v>
+      </c>
+      <c r="C2810" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D2810" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2810" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="4" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B2811" t="n">
+        <v>12008.99</v>
+      </c>
+      <c r="C2811" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D2811" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E2811" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2811"/>
+  <dimension ref="A1:E2821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36575,6 +36575,176 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="2812">
+      <c r="A2812" s="4" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B2812" t="n">
+        <v>11753.98</v>
+      </c>
+      <c r="C2812" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2812" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E2812" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="4" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B2813" t="n">
+        <v>11490.97</v>
+      </c>
+      <c r="C2813" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D2813" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E2813" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="4" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B2814" t="n">
+        <v>11156.58</v>
+      </c>
+      <c r="C2814" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="D2814" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2814" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="4" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B2815" t="n">
+        <v>10947.66</v>
+      </c>
+      <c r="C2815" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D2815" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E2815" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="4" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B2816" t="n">
+        <v>11051.04</v>
+      </c>
+      <c r="C2816" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="D2816" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2816" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="4" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B2817" t="n">
+        <v>11174.92</v>
+      </c>
+      <c r="C2817" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="D2817" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2817" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="4" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B2818" t="n">
+        <v>11549.86</v>
+      </c>
+      <c r="C2818" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="D2818" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2818" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="4" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B2819" t="n">
+        <v>11505.05</v>
+      </c>
+      <c r="C2819" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="D2819" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E2819" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="4" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B2820" t="n">
+        <v>11196.36</v>
+      </c>
+      <c r="C2820" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="D2820" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2820" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="4" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B2821" t="n">
+        <v>11477.52</v>
+      </c>
+      <c r="C2821" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="D2821" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2821" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2821"/>
+  <dimension ref="A1:E2826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36745,6 +36745,91 @@
         <v>1.07</v>
       </c>
     </row>
+    <row r="2822">
+      <c r="A2822" s="4" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B2822" t="n">
+        <v>11389.74</v>
+      </c>
+      <c r="C2822" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="D2822" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="4" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B2823" t="n">
+        <v>11245.85</v>
+      </c>
+      <c r="C2823" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="D2823" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2823" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B2824" t="n">
+        <v>10856.4</v>
+      </c>
+      <c r="C2824" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="D2824" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2824" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="4" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B2825" t="n">
+        <v>10939.75</v>
+      </c>
+      <c r="C2825" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="D2825" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="4" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B2826" t="n">
+        <v>11089.04</v>
+      </c>
+      <c r="C2826" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="D2826" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2826" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2826"/>
+  <dimension ref="A1:E2836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36830,6 +36830,176 @@
         <v>1.14</v>
       </c>
     </row>
+    <row r="2827">
+      <c r="A2827" s="4" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B2827" t="n">
+        <v>11430.73</v>
+      </c>
+      <c r="C2827" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D2827" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="4" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B2828" t="n">
+        <v>11572.17</v>
+      </c>
+      <c r="C2828" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="D2828" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2828" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B2829" t="n">
+        <v>11604.03</v>
+      </c>
+      <c r="C2829" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="D2829" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="4" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2830" t="n">
+        <v>11675.28</v>
+      </c>
+      <c r="C2830" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D2830" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2830" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="4" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B2831" t="n">
+        <v>11574.34</v>
+      </c>
+      <c r="C2831" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="D2831" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2831" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="4" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B2832" t="n">
+        <v>11455.78</v>
+      </c>
+      <c r="C2832" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="D2832" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2832" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="4" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B2833" t="n">
+        <v>11388.24</v>
+      </c>
+      <c r="C2833" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="D2833" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E2833" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="4" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B2834" t="n">
+        <v>11354.54</v>
+      </c>
+      <c r="C2834" t="n">
+        <v/>
+      </c>
+      <c r="D2834" t="n">
+        <v/>
+      </c>
+      <c r="E2834" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="4" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B2835" t="n">
+        <v>11379.59</v>
+      </c>
+      <c r="C2835" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D2835" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E2835" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="4" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B2836" t="n">
+        <v>11254.64</v>
+      </c>
+      <c r="C2836" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D2836" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2836" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2836"/>
+  <dimension ref="A1:E2880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36956,15 +36956,6 @@
       <c r="B2834" t="n">
         <v>11354.54</v>
       </c>
-      <c r="C2834" t="n">
-        <v/>
-      </c>
-      <c r="D2834" t="n">
-        <v/>
-      </c>
-      <c r="E2834" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2835">
       <c r="A2835" s="4" t="n">
@@ -36998,6 +36989,754 @@
       </c>
       <c r="E2836" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="4" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>10817.8</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2837" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="4" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>10753.96</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2838" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="4" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B2839" t="n">
+        <v>10822.25</v>
+      </c>
+      <c r="C2839" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D2839" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2839" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="4" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B2840" t="n">
+        <v>10452</v>
+      </c>
+      <c r="C2840" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="D2840" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2840" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="4" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B2841" t="n">
+        <v>10367.98</v>
+      </c>
+      <c r="C2841" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="D2841" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2841" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="4" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B2842" t="n">
+        <v>10036.99</v>
+      </c>
+      <c r="C2842" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="D2842" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E2842" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="4" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B2843" t="n">
+        <v>10380.37</v>
+      </c>
+      <c r="C2843" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="D2843" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2843" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="4" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B2844" t="n">
+        <v>10233.74</v>
+      </c>
+      <c r="C2844" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="D2844" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2844" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="4" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B2845" t="n">
+        <v>10374.63</v>
+      </c>
+      <c r="C2845" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="D2845" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2845" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="4" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B2846" t="n">
+        <v>10557</v>
+      </c>
+      <c r="C2846" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="D2846" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2846" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="4" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B2847" t="n">
+        <v>10772.2</v>
+      </c>
+      <c r="C2847" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="D2847" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2847" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="4" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2848" t="n">
+        <v>10735.46</v>
+      </c>
+      <c r="C2848" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="D2848" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2848" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="4" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2849" t="n">
+        <v>10674.82</v>
+      </c>
+      <c r="C2849" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D2849" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E2849" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="4" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2850" t="n">
+        <v>10625.71</v>
+      </c>
+      <c r="C2850" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D2850" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2850" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="4" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2851" t="n">
+        <v>10666.66</v>
+      </c>
+      <c r="C2851" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D2851" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2851" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="4" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2852" t="n">
+        <v>10735.31</v>
+      </c>
+      <c r="C2852" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D2852" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2852" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="4" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2853" t="n">
+        <v>10728.25</v>
+      </c>
+      <c r="C2853" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="D2853" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2853" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="4" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2854" t="n">
+        <v>10781.85</v>
+      </c>
+      <c r="C2854" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="D2854" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2854" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="4" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2855" t="n">
+        <v>10953.7</v>
+      </c>
+      <c r="C2855" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D2855" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2855" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="4" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>10987.1</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D2856" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2856" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="4" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>11090.98</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="D2857" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E2857" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="4" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2858" t="n">
+        <v>11044.61</v>
+      </c>
+      <c r="C2858" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D2858" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E2858" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="4" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2859" t="n">
+        <v>11069</v>
+      </c>
+      <c r="C2859" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="D2859" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E2859" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="4" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2860" t="n">
+        <v>10956.21</v>
+      </c>
+      <c r="C2860" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="D2860" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2860" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="4" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2861" t="n">
+        <v>10999.49</v>
+      </c>
+      <c r="C2861" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D2861" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2861" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="4" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2862" t="n">
+        <v>11174.68</v>
+      </c>
+      <c r="C2862" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="D2862" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2862" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="4" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2863" t="n">
+        <v>11288.69</v>
+      </c>
+      <c r="C2863" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="D2863" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2863" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="4" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2864" t="n">
+        <v>11379.68</v>
+      </c>
+      <c r="C2864" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="D2864" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2864" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="4" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2865" t="n">
+        <v>11470.01</v>
+      </c>
+      <c r="C2865" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="D2865" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E2865" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="4" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2866" t="n">
+        <v>11512.65</v>
+      </c>
+      <c r="C2866" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2866" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E2866" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="4" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B2867" t="n">
+        <v>11448.53</v>
+      </c>
+      <c r="C2867" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="D2867" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2867" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="4" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B2868" t="n">
+        <v>11278.55</v>
+      </c>
+      <c r="C2868" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="D2868" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2868" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="4" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B2869" t="n">
+        <v>11279.06</v>
+      </c>
+      <c r="C2869" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="D2869" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2869" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="4" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B2870" t="n">
+        <v>11376.25</v>
+      </c>
+      <c r="C2870" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="D2870" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2870" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="4" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B2871" t="n">
+        <v>11569.57</v>
+      </c>
+      <c r="C2871" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="D2871" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2871" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="4" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B2872" t="n">
+        <v>11778.29</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="4" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B2873" t="n">
+        <v>11861.77</v>
+      </c>
+      <c r="C2873" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2873" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="4" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B2874" t="n">
+        <v>11804.56</v>
+      </c>
+      <c r="C2874" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2874" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="4" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B2875" t="n">
+        <v>11763.89</v>
+      </c>
+      <c r="C2875" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2875" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="4" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B2876" t="n">
+        <v>11757.04</v>
+      </c>
+      <c r="C2876" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2876" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" s="4" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B2877" t="n">
+        <v>11796.99</v>
+      </c>
+      <c r="C2877" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="D2877" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2877" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" s="4" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B2878" t="n">
+        <v>11757.46</v>
+      </c>
+      <c r="C2878" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="D2878" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2878" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" s="4" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B2879" t="n">
+        <v>11863.3</v>
+      </c>
+      <c r="C2879" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D2879" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2879" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" s="4" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B2880" t="n">
+        <v>11896.02</v>
+      </c>
+      <c r="C2880" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D2880" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2880" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2880"/>
+  <dimension ref="A1:E2917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37739,6 +37739,635 @@
         <v>1.1</v>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" s="4" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B2881" t="n">
+        <v>12009.54</v>
+      </c>
+      <c r="C2881" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="D2881" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2881" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" s="4" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B2882" t="n">
+        <v>12068.61</v>
+      </c>
+      <c r="C2882" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="D2882" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2882" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" s="4" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B2883" t="n">
+        <v>12090.2</v>
+      </c>
+      <c r="C2883" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="D2883" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E2883" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" s="4" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B2884" t="n">
+        <v>11945.11</v>
+      </c>
+      <c r="C2884" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="D2884" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2884" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" s="4" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B2885" t="n">
+        <v>11751.61</v>
+      </c>
+      <c r="C2885" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="D2885" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2885" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" s="4" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B2886" t="n">
+        <v>11886.23</v>
+      </c>
+      <c r="C2886" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="D2886" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2886" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" s="4" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B2887" t="n">
+        <v>11985.56</v>
+      </c>
+      <c r="C2887" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="D2887" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2887" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" s="4" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B2888" t="n">
+        <v>12041.01</v>
+      </c>
+      <c r="C2888" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="D2888" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2888" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" s="4" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B2889" t="n">
+        <v>12125.84</v>
+      </c>
+      <c r="C2889" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="D2889" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E2889" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" s="4" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B2890" t="n">
+        <v>12006.52</v>
+      </c>
+      <c r="C2890" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="D2890" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2890" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" s="4" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B2891" t="n">
+        <v>12157.83</v>
+      </c>
+      <c r="C2891" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="D2891" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2891" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B2892" t="n">
+        <v>12173.7</v>
+      </c>
+      <c r="C2892" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="D2892" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2892" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B2893" t="n">
+        <v>12152.67</v>
+      </c>
+      <c r="C2893" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="D2893" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2893" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B2894" t="n">
+        <v>12297.14</v>
+      </c>
+      <c r="C2894" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="D2894" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2894" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="4" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B2895" t="n">
+        <v>12333.12</v>
+      </c>
+      <c r="C2895" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="D2895" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2895" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="4" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B2896" t="n">
+        <v>12433.21</v>
+      </c>
+      <c r="C2896" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="D2896" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E2896" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" s="4" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B2897" t="n">
+        <v>12552.64</v>
+      </c>
+      <c r="C2897" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="D2897" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2897" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" s="4" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B2898" t="n">
+        <v>12560.36</v>
+      </c>
+      <c r="C2898" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="D2898" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2898" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" s="4" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B2899" t="n">
+        <v>12727.16</v>
+      </c>
+      <c r="C2899" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="D2899" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2899" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" s="4" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B2900" t="n">
+        <v>12747.19</v>
+      </c>
+      <c r="C2900" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2900" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" s="4" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B2901" t="n">
+        <v>12737.95</v>
+      </c>
+      <c r="C2901" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2901" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" s="4" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B2902" t="n">
+        <v>12735.96</v>
+      </c>
+      <c r="C2902" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2902" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="4" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B2903" t="n">
+        <v>12410.01</v>
+      </c>
+      <c r="C2903" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2903" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="4" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B2904" t="n">
+        <v>12298.97</v>
+      </c>
+      <c r="C2904" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2904" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="4" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B2905" t="n">
+        <v>12436.47</v>
+      </c>
+      <c r="C2905" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="4" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>12309.4</v>
+      </c>
+      <c r="C2906" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="4" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>12385.32</v>
+      </c>
+      <c r="C2907" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="4" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>12132.19</v>
+      </c>
+      <c r="C2908" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="4" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B2909" t="n">
+        <v>11718.63</v>
+      </c>
+      <c r="C2909" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E2909" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="4" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B2910" t="n">
+        <v>11748.25</v>
+      </c>
+      <c r="C2910" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2910" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="4" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B2911" t="n">
+        <v>11684.46</v>
+      </c>
+      <c r="C2911" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E2911" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="4" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B2912" t="n">
+        <v>11758.26</v>
+      </c>
+      <c r="C2912" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2912" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="4" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B2913" t="n">
+        <v>11945.38</v>
+      </c>
+      <c r="C2913" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E2913" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="4" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B2914" t="n">
+        <v>11866.15</v>
+      </c>
+      <c r="C2914" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E2914" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="4" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B2915" t="n">
+        <v>12075.3</v>
+      </c>
+      <c r="C2915" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2915" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="4" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B2916" t="n">
+        <v>12225.58</v>
+      </c>
+      <c r="C2916" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2916" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="4" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B2917" t="n">
+        <v>12254.48</v>
+      </c>
+      <c r="C2917" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2917" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2917"/>
+  <dimension ref="A1:E2945"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38368,6 +38368,482 @@
         <v>1.15</v>
       </c>
     </row>
+    <row r="2918">
+      <c r="A2918" s="4" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B2918" t="n">
+        <v>12198.17</v>
+      </c>
+      <c r="C2918" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2918" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="4" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B2919" t="n">
+        <v>11990.99</v>
+      </c>
+      <c r="C2919" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2919" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="4" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B2920" t="n">
+        <v>12087.1</v>
+      </c>
+      <c r="C2920" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2920" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="4" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B2921" t="n">
+        <v>12027.09</v>
+      </c>
+      <c r="C2921" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2921" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="4" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B2922" t="n">
+        <v>12042.38</v>
+      </c>
+      <c r="C2922" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2922" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="4" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B2923" t="n">
+        <v>12096.37</v>
+      </c>
+      <c r="C2923" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2923" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="4" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B2924" t="n">
+        <v>12187.92</v>
+      </c>
+      <c r="C2924" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2924" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B2925" t="n">
+        <v>12216.48</v>
+      </c>
+      <c r="C2925" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2925" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="4" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B2926" t="n">
+        <v>12231.43</v>
+      </c>
+      <c r="C2926" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2926" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="4" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B2927" t="n">
+        <v>12214.25</v>
+      </c>
+      <c r="C2927" t="n">
+        <v/>
+      </c>
+      <c r="D2927" t="n">
+        <v/>
+      </c>
+      <c r="E2927" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="4" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B2928" t="n">
+        <v>12327.54</v>
+      </c>
+      <c r="C2928" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2928" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="4" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B2929" t="n">
+        <v>12313.64</v>
+      </c>
+      <c r="C2929" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2929" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="4" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B2930" t="n">
+        <v>12364.72</v>
+      </c>
+      <c r="C2930" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2930" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="4" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B2931" t="n">
+        <v>12241.23</v>
+      </c>
+      <c r="C2931" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2931" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="4" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B2932" t="n">
+        <v>12258.36</v>
+      </c>
+      <c r="C2932" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2932" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="4" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B2933" t="n">
+        <v>12286.72</v>
+      </c>
+      <c r="C2933" t="n">
+        <v/>
+      </c>
+      <c r="D2933" t="n">
+        <v/>
+      </c>
+      <c r="E2933" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="4" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B2934" t="n">
+        <v>12271.9</v>
+      </c>
+      <c r="C2934" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2934" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="4" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B2935" t="n">
+        <v>12302.12</v>
+      </c>
+      <c r="C2935" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2935" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="4" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B2936" t="n">
+        <v>12347.73</v>
+      </c>
+      <c r="C2936" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2936" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="4" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B2937" t="n">
+        <v>12449.74</v>
+      </c>
+      <c r="C2937" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2937" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B2938" t="n">
+        <v>12380.39</v>
+      </c>
+      <c r="C2938" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2938" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" s="4" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B2939" t="n">
+        <v>12237.5</v>
+      </c>
+      <c r="C2939" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2939" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="4" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B2940" t="n">
+        <v>12284</v>
+      </c>
+      <c r="C2940" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2940" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B2941" t="n">
+        <v>12343.37</v>
+      </c>
+      <c r="C2941" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2941" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="4" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B2942" t="n">
+        <v>12376.55</v>
+      </c>
+      <c r="C2942" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2942" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="4" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B2943" t="n">
+        <v>12275.06</v>
+      </c>
+      <c r="C2943" t="n">
+        <v/>
+      </c>
+      <c r="D2943" t="n">
+        <v/>
+      </c>
+      <c r="E2943" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="4" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B2944" t="n">
+        <v>12234.78</v>
+      </c>
+      <c r="C2944" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2944" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="4" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B2945" t="n">
+        <v>12171.58</v>
+      </c>
+      <c r="C2945" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D2945" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2945" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2945"/>
+  <dimension ref="A1:E2950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38528,15 +38528,6 @@
       <c r="B2927" t="n">
         <v>12214.25</v>
       </c>
-      <c r="C2927" t="n">
-        <v/>
-      </c>
-      <c r="D2927" t="n">
-        <v/>
-      </c>
-      <c r="E2927" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2928">
       <c r="A2928" s="4" t="n">
@@ -38630,15 +38621,6 @@
       <c r="B2933" t="n">
         <v>12286.72</v>
       </c>
-      <c r="C2933" t="n">
-        <v/>
-      </c>
-      <c r="D2933" t="n">
-        <v/>
-      </c>
-      <c r="E2933" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2934">
       <c r="A2934" s="4" t="n">
@@ -38800,15 +38782,6 @@
       <c r="B2943" t="n">
         <v>12275.06</v>
       </c>
-      <c r="C2943" t="n">
-        <v/>
-      </c>
-      <c r="D2943" t="n">
-        <v/>
-      </c>
-      <c r="E2943" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2944">
       <c r="A2944" s="4" t="n">
@@ -38842,6 +38815,91 @@
       </c>
       <c r="E2945" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="4" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B2946" t="n">
+        <v>12201.07</v>
+      </c>
+      <c r="C2946" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D2946" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2946" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="4" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B2947" t="n">
+        <v>12207.19</v>
+      </c>
+      <c r="C2947" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D2947" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2947" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="4" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B2948" t="n">
+        <v>12272.5</v>
+      </c>
+      <c r="C2948" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="D2948" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2948" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="4" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B2949" t="n">
+        <v>12335.04</v>
+      </c>
+      <c r="C2949" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="D2949" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2949" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="4" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B2950" t="n">
+        <v>12473.09</v>
+      </c>
+      <c r="C2950" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="D2950" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2950" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2950"/>
+  <dimension ref="A1:E2986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38902,6 +38902,618 @@
         <v>1.14</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B2951" t="n">
+        <v>12626.94</v>
+      </c>
+      <c r="C2951" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="D2951" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2951" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="4" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B2952" t="n">
+        <v>12557.14</v>
+      </c>
+      <c r="C2952" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="D2952" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E2952" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="4" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B2953" t="n">
+        <v>12633.13</v>
+      </c>
+      <c r="C2953" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="D2953" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2953" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="4" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B2954" t="n">
+        <v>12688.03</v>
+      </c>
+      <c r="C2954" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D2954" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2954" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="4" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B2955" t="n">
+        <v>12764.67</v>
+      </c>
+      <c r="C2955" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D2955" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2955" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="4" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B2956" t="n">
+        <v>12819.56</v>
+      </c>
+      <c r="C2956" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="D2956" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2956" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="4" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B2957" t="n">
+        <v>12798.81</v>
+      </c>
+      <c r="C2957" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="D2957" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2957" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" s="4" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B2958" t="n">
+        <v>12723.46</v>
+      </c>
+      <c r="C2958" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D2958" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2958" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" s="4" t="n">
+        <v>44903</v>
+      </c>
+      <c r="B2959" t="n">
+        <v>12765.99</v>
+      </c>
+      <c r="C2959" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D2959" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2959" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" s="4" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B2960" t="n">
+        <v>12625.28</v>
+      </c>
+      <c r="C2960" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="D2960" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2960" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" s="4" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B2961" t="n">
+        <v>12694.78</v>
+      </c>
+      <c r="C2961" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="D2961" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2961" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" s="4" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B2962" t="n">
+        <v>12749.17</v>
+      </c>
+      <c r="C2962" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="D2962" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2962" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" s="4" t="n">
+        <v>44909</v>
+      </c>
+      <c r="B2963" t="n">
+        <v>12839.6</v>
+      </c>
+      <c r="C2963" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D2963" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2963" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" s="4" t="n">
+        <v>44910</v>
+      </c>
+      <c r="B2964" t="n">
+        <v>12766.32</v>
+      </c>
+      <c r="C2964" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D2964" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2964" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" s="4" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B2965" t="n">
+        <v>12685.9</v>
+      </c>
+      <c r="C2965" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D2965" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2965" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" s="4" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B2966" t="n">
+        <v>12744.85</v>
+      </c>
+      <c r="C2966" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="D2966" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2966" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" s="4" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B2967" t="n">
+        <v>12689.38</v>
+      </c>
+      <c r="C2967" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D2967" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2967" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" s="4" t="n">
+        <v>44916</v>
+      </c>
+      <c r="B2968" t="n">
+        <v>12404.58</v>
+      </c>
+      <c r="C2968" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="D2968" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2968" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" s="4" t="n">
+        <v>44917</v>
+      </c>
+      <c r="B2969" t="n">
+        <v>12204.7</v>
+      </c>
+      <c r="C2969" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="D2969" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2969" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" s="4" t="n">
+        <v>44918</v>
+      </c>
+      <c r="B2970" t="n">
+        <v>11628.6</v>
+      </c>
+      <c r="C2970" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="D2970" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2970" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" s="4" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B2971" t="n">
+        <v>12071.86</v>
+      </c>
+      <c r="C2971" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="D2971" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2971" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" s="4" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B2972" t="n">
+        <v>12215.2</v>
+      </c>
+      <c r="C2972" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D2972" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2972" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" s="4" t="n">
+        <v>44923</v>
+      </c>
+      <c r="B2973" t="n">
+        <v>12206.76</v>
+      </c>
+      <c r="C2973" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D2973" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2973" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" s="4" t="n">
+        <v>44924</v>
+      </c>
+      <c r="B2974" t="n">
+        <v>12231.91</v>
+      </c>
+      <c r="C2974" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="D2974" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2974" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" s="4" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B2975" t="n">
+        <v>12323.52</v>
+      </c>
+      <c r="C2975" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="D2975" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2975" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" s="4" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B2976" t="n">
+        <v>12408.76</v>
+      </c>
+      <c r="C2976" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D2976" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2976" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" s="4" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B2977" t="n">
+        <v>12442.58</v>
+      </c>
+      <c r="C2977" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="D2977" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2977" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" s="4" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B2978" t="n">
+        <v>12324.26</v>
+      </c>
+      <c r="C2978" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="D2978" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2978" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" s="4" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B2979" t="n">
+        <v>12328.52</v>
+      </c>
+      <c r="C2979" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="D2979" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2979" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" s="4" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B2980" t="n">
+        <v>12228.21</v>
+      </c>
+      <c r="C2980" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="D2980" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2980" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" s="4" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B2981" t="n">
+        <v>12295.92</v>
+      </c>
+      <c r="C2981" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="D2981" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2981" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" s="4" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B2982" t="n">
+        <v>12223.4</v>
+      </c>
+      <c r="C2982" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="D2982" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2982" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" s="4" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B2983" t="n">
+        <v>12217.66</v>
+      </c>
+      <c r="C2983" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="D2983" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2983" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" s="4" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B2984" t="n">
+        <v>12217.57</v>
+      </c>
+      <c r="C2984" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="D2984" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2984" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" s="4" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B2985" t="n">
+        <v>12253.1</v>
+      </c>
+      <c r="C2985" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="D2985" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2985" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" s="4" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B2986" t="n">
+        <v>12244.54</v>
+      </c>
+      <c r="C2986" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="D2986" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2986" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2986"/>
+  <dimension ref="A1:E2999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39514,6 +39514,227 @@
         <v>1.16</v>
       </c>
     </row>
+    <row r="2987">
+      <c r="A2987" s="4" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B2987" t="n">
+        <v>12239.54</v>
+      </c>
+      <c r="C2987" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D2987" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2987" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" s="4" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B2988" t="n">
+        <v>12246.96</v>
+      </c>
+      <c r="C2988" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="D2988" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2988" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" s="4" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B2989" t="n">
+        <v>12187.11</v>
+      </c>
+      <c r="C2989" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="D2989" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2989" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" s="4" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B2990" t="n">
+        <v>12118.08</v>
+      </c>
+      <c r="C2990" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D2990" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2990" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B2991" t="n">
+        <v>12114.83</v>
+      </c>
+      <c r="C2991" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2991" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2991" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" s="4" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B2992" t="n">
+        <v>12071.06</v>
+      </c>
+      <c r="C2992" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="D2992" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2992" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" s="4" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B2993" t="n">
+        <v>11931.54</v>
+      </c>
+      <c r="C2993" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="D2993" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2993" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" s="4" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B2994" t="n">
+        <v>11706.04</v>
+      </c>
+      <c r="C2994" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D2994" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E2994" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" s="4" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B2995" t="n">
+        <v>11693.73</v>
+      </c>
+      <c r="C2995" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="D2995" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E2995" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" s="4" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B2996" t="n">
+        <v>12034.13</v>
+      </c>
+      <c r="C2996" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="D2996" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2996" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" s="4" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B2997" t="n">
+        <v>11897.1</v>
+      </c>
+      <c r="C2997" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D2997" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E2997" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B2998" t="n">
+        <v>11967.85</v>
+      </c>
+      <c r="C2998" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D2998" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E2998" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" s="4" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B2999" t="n">
+        <v>11927.28</v>
+      </c>
+      <c r="C2999" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D2999" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2999" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2999"/>
+  <dimension ref="A1:E3004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39735,6 +39735,91 @@
         <v>1.12</v>
       </c>
     </row>
+    <row r="3000">
+      <c r="A3000" s="4" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B3000" t="n">
+        <v>11991.73</v>
+      </c>
+      <c r="C3000" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="D3000" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E3000" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" s="4" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B3001" t="n">
+        <v>11909.46</v>
+      </c>
+      <c r="C3001" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D3001" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E3001" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" s="4" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B3002" t="n">
+        <v>12009.93</v>
+      </c>
+      <c r="C3002" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D3002" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E3002" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" s="4" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B3003" t="n">
+        <v>12005.05</v>
+      </c>
+      <c r="C3003" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D3003" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E3003" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" s="4" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B3004" t="n">
+        <v>12071.66</v>
+      </c>
+      <c r="C3004" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="D3004" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E3004" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3004"/>
+  <dimension ref="A1:E3021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39820,6 +39820,295 @@
         <v>1.09</v>
       </c>
     </row>
+    <row r="3005">
+      <c r="A3005" s="4" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B3005" t="n">
+        <v>11896.36</v>
+      </c>
+      <c r="C3005" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="D3005" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E3005" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" s="4" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B3006" t="n">
+        <v>11850.57</v>
+      </c>
+      <c r="C3006" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="D3006" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E3006" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" s="4" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B3007" t="n">
+        <v>11888.32</v>
+      </c>
+      <c r="C3007" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="D3007" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E3007" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B3008" t="n">
+        <v>12007.68</v>
+      </c>
+      <c r="C3008" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="D3008" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E3008" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" s="4" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B3009" t="n">
+        <v>11940.12</v>
+      </c>
+      <c r="C3009" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="D3009" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E3009" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" s="4" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B3010" t="n">
+        <v>11900.12</v>
+      </c>
+      <c r="C3010" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D3010" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E3010" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B3011" t="n">
+        <v>11857.31</v>
+      </c>
+      <c r="C3011" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="D3011" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E3011" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" s="4" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B3012" t="n">
+        <v>11722.84</v>
+      </c>
+      <c r="C3012" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="D3012" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E3012" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" s="4" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B3013" t="n">
+        <v>11714.34</v>
+      </c>
+      <c r="C3013" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D3013" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E3013" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" s="4" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B3014" t="n">
+        <v>11696.39</v>
+      </c>
+      <c r="C3014" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D3014" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E3014" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" s="4" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B3015" t="n">
+        <v>11565.01</v>
+      </c>
+      <c r="C3015" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="D3015" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E3015" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B3016" t="n">
+        <v>11612.43</v>
+      </c>
+      <c r="C3016" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="D3016" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E3016" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="4" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B3017" t="n">
+        <v>11767.68</v>
+      </c>
+      <c r="C3017" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="D3017" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E3017" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="4" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B3018" t="n">
+        <v>11747.99</v>
+      </c>
+      <c r="C3018" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D3018" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E3018" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="4" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B3019" t="n">
+        <v>11842.93</v>
+      </c>
+      <c r="C3019" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D3019" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E3019" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="4" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B3020" t="n">
+        <v>11975.77</v>
+      </c>
+      <c r="C3020" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="D3020" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E3020" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="4" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B3021" t="n">
+        <v>12001.25</v>
+      </c>
+      <c r="C3021" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="D3021" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E3021" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3402"/>
+  <dimension ref="A1:E3407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3370" workbookViewId="0">
       <selection activeCell="B3392" sqref="B3392"/>
@@ -46593,6 +46593,91 @@
         <v>0.82</v>
       </c>
     </row>
+    <row r="3403">
+      <c r="A3403" s="6" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B3403" t="n">
+        <v>25080</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E3403" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="6" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B3404" t="n">
+        <v>24940.36</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E3404" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="6" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B3405" t="n">
+        <v>24834.78</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D3405" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E3405" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="6" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B3406" t="n">
+        <v>24711</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="D3406" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E3406" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="6" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B3407" t="n">
+        <v>24686.28</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D3407" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E3407" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty smallcap 100.xlsx
+++ b/nifty smallcap 100.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3407"/>
+  <dimension ref="A1:E3480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3370" workbookViewId="0">
       <selection activeCell="B3392" sqref="B3392"/>
@@ -46678,6 +46678,1247 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="3408">
+      <c r="A3408" s="6" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B3408" t="n">
+        <v>24606.25</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="D3408" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E3408" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="6" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B3409" t="n">
+        <v>24800.82</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="D3409" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E3409" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="6" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>24314.98</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="D3410" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E3410" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="6" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>24066.17</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="D3411" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3411" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="6" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>23404.7</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="D3412" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3412" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="6" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>23885.55</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="D3413" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E3413" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="6" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>24202.38</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="D3414" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3414" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="6" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>24247.84</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="D3415" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E3415" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="6" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>24387.39</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="D3416" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E3416" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="6" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>24492.31</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="D3417" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E3417" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="6" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>24763.62</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D3418" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3418" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="6" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B3419" t="n">
+        <v>24767.27</v>
+      </c>
+      <c r="C3419" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D3419" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3419" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="6" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B3420" t="n">
+        <v>24460.7</v>
+      </c>
+      <c r="C3420" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="D3420" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E3420" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="6" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B3421" t="n">
+        <v>24475.95</v>
+      </c>
+      <c r="C3421" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="D3421" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E3421" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="6" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>24116.21</v>
+      </c>
+      <c r="C3422" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="D3422" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E3422" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="6" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B3423" t="n">
+        <v>23171.42</v>
+      </c>
+      <c r="C3423" t="n">
+        <v>33.62</v>
+      </c>
+      <c r="D3423" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E3423" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="6" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B3424" t="n">
+        <v>23460.35</v>
+      </c>
+      <c r="C3424" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="D3424" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3424" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="6" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B3425" t="n">
+        <v>23412.8</v>
+      </c>
+      <c r="C3425" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="D3425" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E3425" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="6" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B3426" t="n">
+        <v>22898.05</v>
+      </c>
+      <c r="C3426" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="D3426" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E3426" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="6" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>23173.11</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E3427" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="6" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>23348.43</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E3428" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="6" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>23594.64</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3429" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="6" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>23867.41</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E3430" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="6" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>24114.19</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E3431" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="6" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>23639.14</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E3432" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="6" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>23740.74</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="6" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>24260.25</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="6" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>24078.08</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3435" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="6" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>23674.6</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E3436" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="6" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>23391.64</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>34.46</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E3437" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="6" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>23091.85</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E3438" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="6" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>22408.17</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E3439" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="6" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>22592.62</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E3440" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="6" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>22473.49</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E3441" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="6" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>22695.24</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E3442" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="6" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>22591.57</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E3443" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="6" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>22795.6</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3444" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="6" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>23258.18</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E3445" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="6" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>23450.06</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3446" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="6" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>23755.84</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E3447" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="6" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>23766.96</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E3448" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="6" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>23954.16</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3449" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="6" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>24203.45</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E3450" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="6" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>24407</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E3451" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="6" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>24625.37</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>35.51</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E3452" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="6" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>24830.85</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E3453" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="6" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>25034.47</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E3454" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="6" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>25081.37</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E3455" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="6" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>25151.5</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3456" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="6" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>25246.73</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>36.41</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3457" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="6" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>25001.63</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E3458" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="6" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>24925.57</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E3459" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="6" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B3460" t="n">
+        <v>25084.48</v>
+      </c>
+      <c r="C3460" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="D3460" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E3460" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="6" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B3461" t="n">
+        <v>24914.19</v>
+      </c>
+      <c r="C3461" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="D3461" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E3461" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="6" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B3462" t="n">
+        <v>24698.28</v>
+      </c>
+      <c r="C3462" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="D3462" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E3462" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="6" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B3463" t="n">
+        <v>24573.39</v>
+      </c>
+      <c r="C3463" t="n">
+        <v>35.44</v>
+      </c>
+      <c r="D3463" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3463" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="6" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B3464" t="n">
+        <v>24035.53</v>
+      </c>
+      <c r="C3464" t="n">
+        <v>34.66</v>
+      </c>
+      <c r="D3464" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3464" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="6" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B3465" t="n">
+        <v>24001.46</v>
+      </c>
+      <c r="C3465" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="D3465" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E3465" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="6" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B3466" t="n">
+        <v>24059.05</v>
+      </c>
+      <c r="C3466" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="D3466" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3466" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="6" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B3467" t="n">
+        <v>24053.96</v>
+      </c>
+      <c r="C3467" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="D3467" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3467" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="6" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B3468" t="n">
+        <v>24088.9</v>
+      </c>
+      <c r="C3468" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="D3468" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E3468" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="6" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B3469" t="n">
+        <v>23939.99</v>
+      </c>
+      <c r="C3469" t="n">
+        <v>34.52</v>
+      </c>
+      <c r="D3469" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E3469" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="6" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B3470" t="n">
+        <v>24106.01</v>
+      </c>
+      <c r="C3470" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="D3470" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E3470" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="6" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B3471" t="n">
+        <v>24350.79</v>
+      </c>
+      <c r="C3471" t="n">
+        <v>35.03</v>
+      </c>
+      <c r="D3471" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E3471" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="6" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B3472" t="n">
+        <v>24505.64</v>
+      </c>
+      <c r="C3472" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="D3472" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3472" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="6" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B3473" t="n">
+        <v>24445.73</v>
+      </c>
+      <c r="C3473" t="n">
+        <v>35.17</v>
+      </c>
+      <c r="D3473" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E3473" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="6" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B3474" t="n">
+        <v>23664.3</v>
+      </c>
+      <c r="C3474" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="D3474" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E3474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="6" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B3475" t="n">
+        <v>23983.03</v>
+      </c>
+      <c r="C3475" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D3475" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E3475" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="6" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3476" t="n">
+        <v>23587.74</v>
+      </c>
+      <c r="C3476" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="D3476" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E3476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="6" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B3477" t="n">
+        <v>23270.13</v>
+      </c>
+      <c r="C3477" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="D3477" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E3477" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" s="6" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B3478" t="n">
+        <v>22662.9</v>
+      </c>
+      <c r="C3478" t="n">
+        <v>32.61</v>
+      </c>
+      <c r="D3478" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E3478" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="6" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B3479" t="n">
+        <v>21733.74</v>
+      </c>
+      <c r="C3479" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="D3479" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E3479" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" s="6" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B3480" t="n">
+        <v>22164.88</v>
+      </c>
+      <c r="C3480" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D3480" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E3480" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
